--- a/ResultadosLuna/resultados_validacion_cruzada.xlsx
+++ b/ResultadosLuna/resultados_validacion_cruzada.xlsx
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.30526547624303</v>
+        <v>1.48109986927249</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4.31812769045518</v>
+        <v>3.81979832202712</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.15310641838124</v>
+        <v>2.05995993267184</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.748654887706235</v>
+        <v>0.795682877021712</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2.28568244823141</v>
+        <v>2.22386194507141</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.96216738420342</v>
+        <v>2.07608058921291</v>
       </c>
     </row>
   </sheetData>
